--- a/data/Subset1_WithDialogActs/Math NL2 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math NL2 transcript.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1391,12 +1391,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4375,12 +4375,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4417,12 +4417,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5685,12 +5685,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6445,12 +6445,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7239,12 +7239,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7281,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7621,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7919,12 +7919,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8259,12 +8259,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8897,12 +8897,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9951,12 +9951,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10203,12 +10203,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11887,12 +11887,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12097,12 +12097,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12441,12 +12441,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12865,12 +12865,12 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12991,12 +12991,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14213,12 +14213,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14255,12 +14255,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14931,12 +14931,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15435,12 +15435,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15481,12 +15481,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16153,12 +16153,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16195,12 +16195,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16279,12 +16279,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16699,12 +16699,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17245,12 +17245,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18085,12 +18085,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18127,12 +18127,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18173,12 +18173,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18257,12 +18257,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18299,12 +18299,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18341,12 +18341,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18467,12 +18467,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19013,12 +19013,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19349,12 +19349,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19475,12 +19475,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19937,12 +19937,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20231,12 +20231,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20945,12 +20945,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21197,12 +21197,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21659,12 +21659,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21827,12 +21827,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22205,12 +22205,12 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22415,12 +22415,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22499,12 +22499,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23213,12 +23213,12 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24271,12 +24271,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24573,12 +24573,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24993,12 +24993,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25249,12 +25249,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25291,12 +25291,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25375,12 +25375,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25837,12 +25837,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26517,12 +26517,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27743,12 +27743,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27785,12 +27785,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28457,12 +28457,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28709,12 +28709,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28919,12 +28919,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29297,12 +29297,12 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29339,12 +29339,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30725,12 +30725,12 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31145,12 +31145,12 @@
       <c r="H728" t="inlineStr"/>
       <c r="I728" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31817,12 +31817,12 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32069,12 +32069,12 @@
       <c r="H750" t="inlineStr"/>
       <c r="I750" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32111,12 +32111,12 @@
       <c r="H751" t="inlineStr"/>
       <c r="I751" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33375,12 +33375,12 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33669,12 +33669,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33753,12 +33753,12 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34005,12 +34005,12 @@
       <c r="H796" t="inlineStr"/>
       <c r="I796" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34089,12 +34089,12 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34215,12 +34215,12 @@
       <c r="H801" t="inlineStr"/>
       <c r="I801" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34425,12 +34425,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34593,12 +34593,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34635,12 +34635,12 @@
       <c r="H811" t="inlineStr"/>
       <c r="I811" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34719,12 +34719,12 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34845,12 +34845,12 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34887,12 +34887,12 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35097,12 +35097,12 @@
       <c r="H822" t="inlineStr"/>
       <c r="I822" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35139,12 +35139,12 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35265,12 +35265,12 @@
       <c r="H826" t="inlineStr"/>
       <c r="I826" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35517,12 +35517,12 @@
       <c r="H832" t="inlineStr"/>
       <c r="I832" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35685,12 +35685,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36021,12 +36021,12 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36105,12 +36105,12 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36273,12 +36273,12 @@
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36399,12 +36399,12 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36777,12 +36777,12 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37449,12 +37449,12 @@
       <c r="H878" t="inlineStr"/>
       <c r="I878" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37953,12 +37953,12 @@
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38163,12 +38163,12 @@
       <c r="H895" t="inlineStr"/>
       <c r="I895" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38583,12 +38583,12 @@
       <c r="H905" t="inlineStr"/>
       <c r="I905" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38881,12 +38881,12 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38923,12 +38923,12 @@
       <c r="H913" t="inlineStr"/>
       <c r="I913" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39305,12 +39305,12 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39389,12 +39389,12 @@
       <c r="H924" t="inlineStr"/>
       <c r="I924" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39473,12 +39473,12 @@
       <c r="H926" t="inlineStr"/>
       <c r="I926" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39809,12 +39809,12 @@
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39851,12 +39851,12 @@
       <c r="H935" t="inlineStr"/>
       <c r="I935" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40229,12 +40229,12 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40439,12 +40439,12 @@
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40523,12 +40523,12 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40607,12 +40607,12 @@
       <c r="H953" t="inlineStr"/>
       <c r="I953" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -41153,12 +41153,12 @@
       <c r="H966" t="inlineStr"/>
       <c r="I966" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -41573,12 +41573,12 @@
       <c r="H976" t="inlineStr"/>
       <c r="I976" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -41615,12 +41615,12 @@
       <c r="H977" t="inlineStr"/>
       <c r="I977" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -41741,12 +41741,12 @@
       <c r="H980" t="inlineStr"/>
       <c r="I980" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41993,12 +41993,12 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42119,12 +42119,12 @@
       <c r="H989" t="inlineStr"/>
       <c r="I989" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -42753,12 +42753,12 @@
       <c r="H1004" t="inlineStr"/>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -42837,12 +42837,12 @@
       <c r="H1006" t="inlineStr"/>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42879,12 +42879,12 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -43005,12 +43005,12 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
